--- a/PDAC-Response_working.xlsx
+++ b/PDAC-Response_working.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -921,388 +921,388 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CASE515</t>
+          <t>CASE272</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CASE274</t>
+          <t>CASE515</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CASE523</t>
+          <t>CASE274</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CASE525</t>
+          <t>CASE523</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CASE531</t>
+          <t>CASE520</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CASE534</t>
+          <t>CASE525</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CASE535</t>
+          <t>CASE531</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CASE537</t>
+          <t>CASE534</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CASE546</t>
+          <t>CASE535</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CASE541</t>
+          <t>CASE537</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CASE543</t>
+          <t>CASE546</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CASE548</t>
+          <t>CASE541</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CASE549</t>
+          <t>CASE543</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CASE551</t>
+          <t>CASE548</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CASE554</t>
+          <t>CASE549</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CASE559</t>
+          <t>CASE551</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CASE555</t>
+          <t>CASE550</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CASE560</t>
+          <t>CASE554</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CASE563</t>
+          <t>CASE559</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CASE562</t>
+          <t>CASE555</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CASE564</t>
+          <t>CASE560</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CASE565</t>
+          <t>CASE563</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CASE569</t>
+          <t>CASE562</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CASE568</t>
+          <t>CASE564</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CASE572</t>
+          <t>CASE565</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CASE574</t>
+          <t>CASE569</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CASE575</t>
+          <t>CASE568</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CASE577</t>
+          <t>CASE572</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CASE578</t>
+          <t>CASE574</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CASE580</t>
+          <t>CASE575</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>13</v>
@@ -1311,37 +1311,37 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CASE581</t>
+          <t>CASE577</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CASE589</t>
+          <t>CASE578</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CASE587</t>
+          <t>CASE580</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
         <v>13</v>
@@ -1350,208 +1350,273 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CASE585</t>
+          <t>CASE581</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CASE588</t>
+          <t>CASE586</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CASE593</t>
+          <t>CASE589</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CASE598</t>
+          <t>CASE587</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CASE600</t>
+          <t>CASE585</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CASE596</t>
+          <t>CASE588</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CASE603</t>
+          <t>CASE593</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CASE604</t>
+          <t>CASE598</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CASE610</t>
+          <t>CASE600</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CASE608</t>
+          <t>CASE596</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CASE611</t>
+          <t>CASE603</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CASE623</t>
+          <t>CASE604</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CASE622</t>
+          <t>CASE605</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CASE632</t>
+          <t>CASE610</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CASE624</t>
+          <t>CASE608</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>CASE611</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CASE623</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CASE622</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CASE632</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CASE624</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>CASE635</t>
         </is>
       </c>
-      <c r="B86" t="n">
-        <v>1</v>
-      </c>
-      <c r="C86" t="n">
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
         <v>7</v>
       </c>
     </row>
